--- a/Code/Results/Cases/Case_8_33/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_33/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,52 +421,58 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.60015402400539</v>
+        <v>12.56648446419019</v>
       </c>
       <c r="C2">
-        <v>11.48748076767136</v>
+        <v>12.87043055304362</v>
       </c>
       <c r="D2">
-        <v>6.159305163597685</v>
+        <v>5.110075400341837</v>
       </c>
       <c r="E2">
-        <v>27.72481452085857</v>
+        <v>27.99808541651817</v>
       </c>
       <c r="F2">
-        <v>40.66690771110733</v>
+        <v>33.75988901471857</v>
       </c>
       <c r="G2">
-        <v>2.119249348073434</v>
+        <v>5.868807479039597</v>
       </c>
       <c r="H2">
-        <v>2.038531525848719</v>
+        <v>2.282184825176174</v>
       </c>
       <c r="I2">
-        <v>3.365934963935235</v>
+        <v>2.91415489446418</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>28.76672805375103</v>
+        <v>23.08296285897846</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>18.59560272813792</v>
       </c>
       <c r="M2">
-        <v>12.62991758786373</v>
+        <v>15.84790564653238</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>13.08305859664239</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -474,52 +480,58 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.76598331309076</v>
+        <v>11.78771371454875</v>
       </c>
       <c r="C3">
-        <v>10.67871477253634</v>
+        <v>11.95906911797507</v>
       </c>
       <c r="D3">
-        <v>6.066376957859068</v>
+        <v>5.055255267777864</v>
       </c>
       <c r="E3">
-        <v>25.80381525384713</v>
+        <v>26.10843960976055</v>
       </c>
       <c r="F3">
-        <v>38.812508388574</v>
+        <v>32.43199567803057</v>
       </c>
       <c r="G3">
-        <v>2.125609895054423</v>
+        <v>6.621353776654217</v>
       </c>
       <c r="H3">
-        <v>1.748553439921879</v>
+        <v>2.026744652371739</v>
       </c>
       <c r="I3">
-        <v>3.618795705727198</v>
+        <v>3.10043286181899</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>27.71991530458988</v>
+        <v>22.49633923652524</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>18.3420424973629</v>
       </c>
       <c r="M3">
-        <v>11.81102262102213</v>
+        <v>15.21463602170368</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.27600441277817</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -527,52 +539,58 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.22347931287177</v>
+        <v>11.28146213748667</v>
       </c>
       <c r="C4">
-        <v>10.15915284244467</v>
+        <v>11.37037565770188</v>
       </c>
       <c r="D4">
-        <v>6.005310724665774</v>
+        <v>5.018550626313342</v>
       </c>
       <c r="E4">
-        <v>24.55817063920334</v>
+        <v>24.88133990165043</v>
       </c>
       <c r="F4">
-        <v>37.62701603751827</v>
+        <v>31.5812700500305</v>
       </c>
       <c r="G4">
-        <v>2.129621845278925</v>
+        <v>7.097032619914365</v>
       </c>
       <c r="H4">
-        <v>1.564912337040074</v>
+        <v>1.864630606517244</v>
       </c>
       <c r="I4">
-        <v>3.779170830286505</v>
+        <v>3.219321879267371</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>27.0518000443345</v>
+        <v>22.11994280541858</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>18.17153801184368</v>
       </c>
       <c r="M4">
-        <v>11.28105187762373</v>
+        <v>14.82413654602547</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.75375110771243</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -580,52 +598,58 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.99290860882417</v>
+        <v>11.0665994211346</v>
       </c>
       <c r="C5">
-        <v>9.949277217231652</v>
+        <v>11.12945567937506</v>
       </c>
       <c r="D5">
-        <v>5.974909337299472</v>
+        <v>5.000776179517595</v>
       </c>
       <c r="E5">
-        <v>24.03346059071062</v>
+        <v>24.36410329862375</v>
       </c>
       <c r="F5">
-        <v>37.09677682007773</v>
+        <v>31.19709264764765</v>
       </c>
       <c r="G5">
-        <v>2.131298979147587</v>
+        <v>7.295956314049019</v>
       </c>
       <c r="H5">
-        <v>1.63462116423782</v>
+        <v>1.796978564458889</v>
       </c>
       <c r="I5">
-        <v>3.84873911821701</v>
+        <v>3.272274453597005</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>26.74508545886851</v>
+        <v>21.94078470768552</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>18.08100555558855</v>
       </c>
       <c r="M5">
-        <v>11.05934228418588</v>
+        <v>14.64933593692317</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.5351619009433</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -633,52 +657,58 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.95192302277587</v>
+        <v>11.0286540661631</v>
       </c>
       <c r="C6">
-        <v>9.923463149250447</v>
+        <v>11.09676273489643</v>
       </c>
       <c r="D6">
-        <v>5.964301153440048</v>
+        <v>4.995295928595759</v>
       </c>
       <c r="E6">
-        <v>23.94491142131318</v>
+        <v>24.2768573793331</v>
       </c>
       <c r="F6">
-        <v>36.96428523079157</v>
+        <v>31.09748428460928</v>
       </c>
       <c r="G6">
-        <v>2.131596903884842</v>
+        <v>7.3311218430646</v>
       </c>
       <c r="H6">
-        <v>1.648173106567861</v>
+        <v>1.785373304142256</v>
       </c>
       <c r="I6">
-        <v>3.864060032733672</v>
+        <v>3.285447832489494</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>26.65916752219847</v>
+        <v>21.88416704331274</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>18.04461803433299</v>
       </c>
       <c r="M6">
-        <v>11.02347560227533</v>
+        <v>14.60114712711862</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.49959214101108</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -686,52 +716,58 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.21442813709182</v>
+        <v>11.2812489728948</v>
       </c>
       <c r="C7">
-        <v>10.1813038847618</v>
+        <v>11.33886108703433</v>
       </c>
       <c r="D7">
-        <v>5.989951528560312</v>
+        <v>5.000293564290828</v>
       </c>
       <c r="E7">
-        <v>24.5500474765188</v>
+        <v>24.87159557960173</v>
       </c>
       <c r="F7">
-        <v>37.50222019309916</v>
+        <v>31.31014296074988</v>
       </c>
       <c r="G7">
-        <v>2.129692384909724</v>
+        <v>7.158137437675573</v>
       </c>
       <c r="H7">
-        <v>1.562762209022953</v>
+        <v>1.861280525071636</v>
       </c>
       <c r="I7">
-        <v>3.789941774597159</v>
+        <v>3.23429915275943</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>26.95423710629874</v>
+        <v>21.9356567603136</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>18.0272108972152</v>
       </c>
       <c r="M7">
-        <v>11.28171338904977</v>
+        <v>14.68946244722477</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.74366584656145</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -739,52 +775,58 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.31144172646532</v>
+        <v>12.32116412779476</v>
       </c>
       <c r="C8">
-        <v>11.24354695736769</v>
+        <v>12.43745075182076</v>
       </c>
       <c r="D8">
-        <v>6.10870284826761</v>
+        <v>5.049896892658958</v>
       </c>
       <c r="E8">
-        <v>27.07458292245416</v>
+        <v>27.35295890731656</v>
       </c>
       <c r="F8">
-        <v>39.89008718633558</v>
+        <v>32.65312124284021</v>
       </c>
       <c r="G8">
-        <v>2.121482649498366</v>
+        <v>6.39403550183679</v>
       </c>
       <c r="H8">
-        <v>1.938236230968579</v>
+        <v>2.188899001438927</v>
       </c>
       <c r="I8">
-        <v>3.464861210510614</v>
+        <v>3.00128752190597</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>28.29271163404948</v>
+        <v>22.44308361022003</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>18.1722423318642</v>
       </c>
       <c r="M8">
-        <v>12.35756569820054</v>
+        <v>15.30066327184256</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.78246584095558</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -792,52 +834,58 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.23385123339283</v>
+        <v>14.11762693324278</v>
       </c>
       <c r="C9">
-        <v>13.10777307572499</v>
+        <v>14.50944873212445</v>
       </c>
       <c r="D9">
-        <v>6.335657283917151</v>
+        <v>5.172637603741823</v>
       </c>
       <c r="E9">
-        <v>31.50876030166043</v>
+        <v>31.70147457192133</v>
       </c>
       <c r="F9">
-        <v>44.38012064865453</v>
+        <v>35.78283197783627</v>
       </c>
       <c r="G9">
-        <v>2.106103025816821</v>
+        <v>4.701920211151724</v>
       </c>
       <c r="H9">
-        <v>2.633874058251464</v>
+        <v>2.797997202234062</v>
       </c>
       <c r="I9">
-        <v>2.850198312237725</v>
+        <v>2.550508544027055</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>30.86464106973204</v>
+        <v>23.83034107953119</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>18.74794253330872</v>
       </c>
       <c r="M9">
-        <v>14.24761419447193</v>
+        <v>16.8579301874456</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.63935713242613</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -845,52 +893,58 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.509828816023</v>
+        <v>15.34927974669381</v>
       </c>
       <c r="C10">
-        <v>14.29766958014812</v>
+        <v>15.58289778098215</v>
       </c>
       <c r="D10">
-        <v>6.40811315383776</v>
+        <v>5.190913330843168</v>
       </c>
       <c r="E10">
-        <v>33.57501039036839</v>
+        <v>33.69090366830234</v>
       </c>
       <c r="F10">
-        <v>46.87698244435256</v>
+        <v>36.66358756779838</v>
       </c>
       <c r="G10">
-        <v>2.095653761656834</v>
+        <v>4.897894759112618</v>
       </c>
       <c r="H10">
-        <v>3.082459430703879</v>
+        <v>3.17778776469451</v>
       </c>
       <c r="I10">
-        <v>2.526574112272558</v>
+        <v>2.702095565931291</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>32.2108534156806</v>
+        <v>23.93577716552666</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>18.49069018420117</v>
       </c>
       <c r="M10">
-        <v>15.48659163365562</v>
+        <v>17.3239860362518</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.80370460218981</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -898,52 +952,58 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.1269347120577</v>
+        <v>16.06354656875943</v>
       </c>
       <c r="C11">
-        <v>14.13544059581963</v>
+        <v>14.82044251243902</v>
       </c>
       <c r="D11">
-        <v>5.918681219780632</v>
+        <v>5.215264628677214</v>
       </c>
       <c r="E11">
-        <v>26.92414538574091</v>
+        <v>27.01751365376055</v>
       </c>
       <c r="F11">
-        <v>43.52771631644626</v>
+        <v>32.31136070172764</v>
       </c>
       <c r="G11">
-        <v>2.094274246815585</v>
+        <v>8.421579834355011</v>
       </c>
       <c r="H11">
-        <v>3.596935436725356</v>
+        <v>3.659513623983477</v>
       </c>
       <c r="I11">
-        <v>2.590162666168546</v>
+        <v>2.736159224631633</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>29.56208235321491</v>
+        <v>20.85574753312293</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>16.1079089876767</v>
       </c>
       <c r="M11">
-        <v>15.83383699188546</v>
+        <v>15.0867261851736</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.02450196065817</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -951,52 +1011,58 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.40265628004253</v>
+        <v>16.40826462751315</v>
       </c>
       <c r="C12">
-        <v>13.73105738750795</v>
+        <v>14.07074073255768</v>
       </c>
       <c r="D12">
-        <v>5.637215181036844</v>
+        <v>5.429219186112539</v>
       </c>
       <c r="E12">
-        <v>20.85942503476808</v>
+        <v>20.95803777869493</v>
       </c>
       <c r="F12">
-        <v>40.32259379763629</v>
+        <v>29.07815184648493</v>
       </c>
       <c r="G12">
-        <v>2.094855203296857</v>
+        <v>10.26050667390287</v>
       </c>
       <c r="H12">
-        <v>4.594339060945131</v>
+        <v>4.64199808270697</v>
       </c>
       <c r="I12">
-        <v>2.568511686696031</v>
+        <v>2.718404533446324</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.18972059578775</v>
+        <v>18.73929954958514</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.5552994310145</v>
       </c>
       <c r="M12">
-        <v>15.87689735686784</v>
+        <v>13.45955273565284</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.00371262059493</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -1004,52 +1070,58 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.43500842287532</v>
+        <v>16.47617414976663</v>
       </c>
       <c r="C13">
-        <v>13.1317082922627</v>
+        <v>13.3733163702591</v>
       </c>
       <c r="D13">
-        <v>5.490037452360208</v>
+        <v>5.649053560154455</v>
       </c>
       <c r="E13">
-        <v>14.6873067842508</v>
+        <v>14.82090604889136</v>
       </c>
       <c r="F13">
-        <v>36.8088131047184</v>
+        <v>26.64767952931891</v>
       </c>
       <c r="G13">
-        <v>2.097034953292275</v>
+        <v>9.934077253014763</v>
       </c>
       <c r="H13">
-        <v>5.763539656814965</v>
+        <v>5.807763418684281</v>
       </c>
       <c r="I13">
-        <v>2.517439076448136</v>
+        <v>2.667043408118766</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>24.72953930774212</v>
+        <v>17.28996753573788</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.55122441435167</v>
       </c>
       <c r="M13">
-        <v>15.69525843584094</v>
+        <v>12.2695926694353</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.81770897331129</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1057,52 +1129,58 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.34799605695802</v>
+        <v>16.39892108882189</v>
       </c>
       <c r="C14">
-        <v>12.62272761476729</v>
+        <v>12.89937165974474</v>
       </c>
       <c r="D14">
-        <v>5.469361572598595</v>
+        <v>5.77753045343966</v>
       </c>
       <c r="E14">
-        <v>10.2522719310908</v>
+        <v>10.43825448860374</v>
       </c>
       <c r="F14">
-        <v>34.15262637178061</v>
+        <v>25.24169249396614</v>
       </c>
       <c r="G14">
-        <v>2.099243727436454</v>
+        <v>8.781268203603796</v>
       </c>
       <c r="H14">
-        <v>6.642766686571306</v>
+        <v>6.686828864582077</v>
       </c>
       <c r="I14">
-        <v>2.606073251578258</v>
+        <v>2.617458325778779</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.94609858773969</v>
+        <v>16.52739285237934</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.04973859204822</v>
       </c>
       <c r="M14">
-        <v>15.4665111702949</v>
+        <v>11.60318133480481</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.610758324322</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1110,52 +1188,58 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.27194548342719</v>
+        <v>16.31944590772714</v>
       </c>
       <c r="C15">
-        <v>12.46112735953898</v>
+        <v>12.79017355061871</v>
       </c>
       <c r="D15">
-        <v>5.47512664299634</v>
+        <v>5.785855793841848</v>
       </c>
       <c r="E15">
-        <v>9.134741733007353</v>
+        <v>9.345305067203435</v>
       </c>
       <c r="F15">
-        <v>33.39728916810501</v>
+        <v>25.00467887891573</v>
       </c>
       <c r="G15">
-        <v>2.100183321705999</v>
+        <v>8.126697260545802</v>
       </c>
       <c r="H15">
-        <v>6.843568777474447</v>
+        <v>6.888643249110105</v>
       </c>
       <c r="I15">
-        <v>2.647501755370855</v>
+        <v>2.598708574507303</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.46140645873203</v>
+        <v>16.42355876438366</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>12.99236171210714</v>
       </c>
       <c r="M15">
-        <v>15.36220405905432</v>
+        <v>11.49461584344178</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.52291437060054</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1163,52 +1247,58 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.74900426442565</v>
+        <v>15.75026934914094</v>
       </c>
       <c r="C16">
-        <v>12.05654478041823</v>
+        <v>12.76347389093815</v>
       </c>
       <c r="D16">
-        <v>5.46576152468666</v>
+        <v>5.548945944759915</v>
       </c>
       <c r="E16">
-        <v>8.975089940133712</v>
+        <v>9.239257300092666</v>
       </c>
       <c r="F16">
-        <v>32.79969504775611</v>
+        <v>26.12517734000483</v>
       </c>
       <c r="G16">
-        <v>2.104147417971346</v>
+        <v>5.409897633853934</v>
       </c>
       <c r="H16">
-        <v>6.561087021770154</v>
+        <v>6.617113598566912</v>
       </c>
       <c r="I16">
-        <v>2.806310077880115</v>
+        <v>2.525759920961936</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.25155109692907</v>
+        <v>17.26553997226044</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.66280033672433</v>
       </c>
       <c r="M16">
-        <v>14.88406680493714</v>
+        <v>12.05577926309287</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.14307440254516</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1216,52 +1306,58 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.38576387740599</v>
+        <v>15.35725039791178</v>
       </c>
       <c r="C17">
-        <v>12.02621645691629</v>
+        <v>12.95460389423531</v>
       </c>
       <c r="D17">
-        <v>5.455266783674082</v>
+        <v>5.358340485640623</v>
       </c>
       <c r="E17">
-        <v>11.3437709380516</v>
+        <v>11.59849412739426</v>
       </c>
       <c r="F17">
-        <v>33.79550153501601</v>
+        <v>27.57401815340181</v>
       </c>
       <c r="G17">
-        <v>2.106061750918272</v>
+        <v>4.695068133752099</v>
       </c>
       <c r="H17">
-        <v>5.822677411846425</v>
+        <v>5.890051186572529</v>
       </c>
       <c r="I17">
-        <v>2.883532145929506</v>
+        <v>2.576494000939713</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>23.04635712338658</v>
+        <v>18.24520900392211</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.41869920894852</v>
       </c>
       <c r="M17">
-        <v>14.63603834037287</v>
+        <v>12.7627613202148</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.94847810005208</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1269,52 +1365,58 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.13245693983845</v>
+        <v>15.06984144303841</v>
       </c>
       <c r="C18">
-        <v>12.30885140359026</v>
+        <v>13.42756390612176</v>
       </c>
       <c r="D18">
-        <v>5.519837845508073</v>
+        <v>5.192360691481697</v>
       </c>
       <c r="E18">
-        <v>16.22980492345217</v>
+        <v>16.45360406665194</v>
       </c>
       <c r="F18">
-        <v>36.37752851041235</v>
+        <v>29.84102622201673</v>
       </c>
       <c r="G18">
-        <v>2.106207680538869</v>
+        <v>4.468580629561794</v>
       </c>
       <c r="H18">
-        <v>4.66511491227907</v>
+        <v>4.751471775533296</v>
       </c>
       <c r="I18">
-        <v>2.881245761276832</v>
+        <v>2.570164292405535</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>24.89878339298399</v>
+        <v>19.71168659450048</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>15.5192504173031</v>
       </c>
       <c r="M18">
-        <v>14.56531562120726</v>
+        <v>13.87441082322783</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.91413559339447</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1322,52 +1424,58 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.98608693240768</v>
+        <v>14.88311631410321</v>
       </c>
       <c r="C19">
-        <v>12.86038236541591</v>
+        <v>14.15521622276099</v>
       </c>
       <c r="D19">
-        <v>5.74015857794561</v>
+        <v>5.117564195593547</v>
       </c>
       <c r="E19">
-        <v>22.7141312137253</v>
+        <v>22.91094453378712</v>
       </c>
       <c r="F19">
-        <v>39.85992651565316</v>
+        <v>32.57129991908312</v>
       </c>
       <c r="G19">
-        <v>2.104707844696137</v>
+        <v>4.259869682436794</v>
       </c>
       <c r="H19">
-        <v>3.469269531046938</v>
+        <v>3.586018159984752</v>
       </c>
       <c r="I19">
-        <v>2.826390683134433</v>
+        <v>2.53620368337933</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>27.3629440323538</v>
+        <v>21.46262924470514</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.81884836226444</v>
       </c>
       <c r="M19">
-        <v>14.65498513965891</v>
+        <v>15.22442173524293</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>15.02806898712609</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1375,52 +1483,58 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.16993976912473</v>
+        <v>15.00269411912684</v>
       </c>
       <c r="C20">
-        <v>14.04581778542858</v>
+        <v>15.48584128594467</v>
       </c>
       <c r="D20">
-        <v>6.34488846612838</v>
+        <v>5.196041829905949</v>
       </c>
       <c r="E20">
-        <v>33.00027106888626</v>
+        <v>33.14455038435716</v>
       </c>
       <c r="F20">
-        <v>45.90983188568682</v>
+        <v>36.68504627315885</v>
       </c>
       <c r="G20">
-        <v>2.098524727745509</v>
+        <v>4.025817212989972</v>
       </c>
       <c r="H20">
-        <v>2.960109570238042</v>
+        <v>3.079869667151137</v>
       </c>
       <c r="I20">
-        <v>2.586346056414725</v>
+        <v>2.650956101294515</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>31.59903470139947</v>
+        <v>24.04634879622597</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>18.65847099193259</v>
       </c>
       <c r="M20">
-        <v>15.17695638647236</v>
+        <v>17.30846126363194</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.54160194441454</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1428,52 +1542,58 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.09602235155958</v>
+        <v>15.99532733272479</v>
       </c>
       <c r="C21">
-        <v>15.04118780829972</v>
+        <v>15.74271194983212</v>
       </c>
       <c r="D21">
-        <v>6.508456719846559</v>
+        <v>5.159221592886883</v>
       </c>
       <c r="E21">
-        <v>35.87079431258012</v>
+        <v>35.9171925349067</v>
       </c>
       <c r="F21">
-        <v>48.60206074648414</v>
+        <v>35.37521155961909</v>
       </c>
       <c r="G21">
-        <v>2.089966151654471</v>
+        <v>9.87625918422955</v>
       </c>
       <c r="H21">
-        <v>3.359389895512695</v>
+        <v>3.397050305623716</v>
       </c>
       <c r="I21">
-        <v>2.756849229784657</v>
+        <v>2.836423095605494</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>33.21651959151703</v>
+        <v>22.81365945331067</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>17.51618800804559</v>
       </c>
       <c r="M21">
-        <v>16.12178799632622</v>
+        <v>16.64102660796523</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.28456699462717</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1481,52 +1601,58 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.6864587183566</v>
+        <v>16.63811614680718</v>
       </c>
       <c r="C22">
-        <v>15.60914346557906</v>
+        <v>15.79806486797391</v>
       </c>
       <c r="D22">
-        <v>6.595028867804651</v>
+        <v>5.19289078320932</v>
       </c>
       <c r="E22">
-        <v>37.23776853149897</v>
+        <v>37.22002524093805</v>
       </c>
       <c r="F22">
-        <v>50.17140357192006</v>
+        <v>34.26952576875639</v>
       </c>
       <c r="G22">
-        <v>2.084576709094751</v>
+        <v>14.74908054973834</v>
       </c>
       <c r="H22">
-        <v>3.597898256697842</v>
+        <v>3.583702413516505</v>
       </c>
       <c r="I22">
-        <v>2.95753608095093</v>
+        <v>2.947436115768071</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>34.15638341896309</v>
+        <v>21.85866452113418</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.68195691374309</v>
       </c>
       <c r="M22">
-        <v>16.70213122757083</v>
+        <v>16.07826738068476</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.72804077549671</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1534,52 +1660,58 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.37892125560484</v>
+        <v>16.28601172752657</v>
       </c>
       <c r="C23">
-        <v>15.28715765865894</v>
+        <v>15.84353644605261</v>
       </c>
       <c r="D23">
-        <v>6.565196242863658</v>
+        <v>5.169862776283441</v>
       </c>
       <c r="E23">
-        <v>36.51448347719314</v>
+        <v>36.53400166368964</v>
       </c>
       <c r="F23">
-        <v>49.44718159570519</v>
+        <v>35.29989890072965</v>
       </c>
       <c r="G23">
-        <v>2.087397330195138</v>
+        <v>11.32500446920633</v>
       </c>
       <c r="H23">
-        <v>3.472113053566282</v>
+        <v>3.487837937936435</v>
       </c>
       <c r="I23">
-        <v>2.847259419388209</v>
+        <v>2.887439919935985</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>33.74788485471554</v>
+        <v>22.66981046952203</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>17.34154131730226</v>
       </c>
       <c r="M23">
-        <v>16.39151555899222</v>
+        <v>16.616575046356</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.51008048757038</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1587,52 +1719,58 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.15626335789637</v>
+        <v>14.98229257271196</v>
       </c>
       <c r="C24">
-        <v>14.06284875850597</v>
+        <v>15.53113778696106</v>
       </c>
       <c r="D24">
-        <v>6.420295592120814</v>
+        <v>5.217143741052464</v>
       </c>
       <c r="E24">
-        <v>33.66653713500011</v>
+        <v>33.80899476896951</v>
       </c>
       <c r="F24">
-        <v>46.44289108630117</v>
+        <v>37.12686329476129</v>
       </c>
       <c r="G24">
-        <v>2.098267909873526</v>
+        <v>3.966875666835657</v>
       </c>
       <c r="H24">
-        <v>2.987161362633291</v>
+        <v>3.105350407885895</v>
       </c>
       <c r="I24">
-        <v>2.556955331981418</v>
+        <v>2.645978885309486</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>32.00909128114612</v>
+        <v>24.36391214070982</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>18.89770428613409</v>
       </c>
       <c r="M24">
-        <v>15.17481260794027</v>
+        <v>17.54857429005185</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.54331088066965</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1640,57 +1778,69 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.72981366724972</v>
+        <v>13.63880418533436</v>
       </c>
       <c r="C25">
-        <v>12.65904514073681</v>
+        <v>14.06208327529004</v>
       </c>
       <c r="D25">
-        <v>6.252034336733131</v>
+        <v>5.145472405829981</v>
       </c>
       <c r="E25">
-        <v>30.36163794010722</v>
+        <v>30.58178614393488</v>
       </c>
       <c r="F25">
-        <v>43.02205208944453</v>
+        <v>35.03343155286616</v>
       </c>
       <c r="G25">
-        <v>2.110265574032691</v>
+        <v>4.983170452226296</v>
       </c>
       <c r="H25">
-        <v>2.448062355647132</v>
+        <v>2.63829054039582</v>
       </c>
       <c r="I25">
-        <v>3.03139177425982</v>
+        <v>2.687186748736067</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>30.04016463375447</v>
+        <v>23.49468034822743</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>18.62353729824326</v>
       </c>
       <c r="M25">
-        <v>13.76427245878823</v>
+        <v>16.46074616335537</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>14.17687352512907</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
